--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>615793.4470980654</v>
+        <v>613905.8655816631</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348685.8037834048</v>
+        <v>229045.3320147413</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>38.02965476148539</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>255.7405991509606</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -795,7 +795,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494254</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>201.089163843681</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>56.74895840592232</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>48.01168460662088</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>316.0689408798576</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>44.17579562641288</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>8.787420751036338</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>53.88251255924506</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>91.54126986570968</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>21.97741993146095</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>262.5770567221877</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36.31437750815296</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>211.2541671901479</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1768,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>66.90445977359154</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>176.2321875508322</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>83.39482120299877</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>207.6951870029948</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>39.84525176087195</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.65427797905863</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>12.6595204989329</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>25.5757563207273</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>84.60427106171458</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>79.28074486979456</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>91.51103942209528</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965519</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
-        <v>91.230706018012</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897896</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571483</v>
+        <v>42.95895086650486</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3205,7 +3205,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463158</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3794,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692846</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4198,7 +4198,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
         <v>150.4527632224541</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1317.778685247039</v>
+        <v>1533.27522618254</v>
       </c>
       <c r="C2" t="n">
-        <v>1317.778685247039</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036446</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2603.706608860347</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304456</v>
+        <v>2603.706608860347</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304456</v>
+        <v>2603.706608860347</v>
       </c>
       <c r="V2" t="n">
-        <v>2044.013098778233</v>
+        <v>2272.643721516776</v>
       </c>
       <c r="W2" t="n">
-        <v>1691.244443508119</v>
+        <v>1919.875066246662</v>
       </c>
       <c r="X2" t="n">
-        <v>1317.778685247039</v>
+        <v>1919.875066246662</v>
       </c>
       <c r="Y2" t="n">
-        <v>1317.778685247039</v>
+        <v>1919.875066246662</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,22 +4407,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036446</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600563</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600563</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W4" t="n">
-        <v>409.2948950230956</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>351.9727148150933</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>351.9727148150933</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1584.674208896763</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>1584.674208896763</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>1226.408510290012</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>840.6202576917681</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>429.6343529021605</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,10 +4565,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W5" t="n">
-        <v>1971.274048960885</v>
+        <v>1574.428194840505</v>
       </c>
       <c r="X5" t="n">
-        <v>1971.274048960885</v>
+        <v>1574.428194840505</v>
       </c>
       <c r="Y5" t="n">
-        <v>1971.274048960885</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4656,10 +4656,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.81916439716883</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="C7" t="n">
-        <v>62.81916439716883</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="D7" t="n">
-        <v>62.81916439716883</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="E7" t="n">
-        <v>62.81916439716883</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="F7" t="n">
-        <v>62.81916439716883</v>
+        <v>98.56499760461989</v>
       </c>
       <c r="G7" t="n">
-        <v>62.81916439716883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>62.81916439716883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>62.81916439716883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>290.8087152951862</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>290.8087152951862</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X7" t="n">
-        <v>62.81916439716883</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="Y7" t="n">
-        <v>62.81916439716883</v>
+        <v>245.4549451025302</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>919.0673236324992</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C8" t="n">
-        <v>919.0673236324992</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>919.0673236324992</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>533.2790710342549</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>122.2931662446474</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>108.3697621832383</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>108.3697621832383</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4814,40 +4814,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W8" t="n">
-        <v>1695.806495672433</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="X8" t="n">
-        <v>1695.806495672433</v>
+        <v>2386.048494833003</v>
       </c>
       <c r="Y8" t="n">
-        <v>1305.667163696621</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,16 +4890,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>705.9295701342514</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V10" t="n">
-        <v>705.9295701342514</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W10" t="n">
-        <v>416.5124000972908</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X10" t="n">
-        <v>416.5124000972908</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>416.5124000972908</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1819.161927111988</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N12" t="n">
-        <v>2623.573505376138</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>133.8982808624606</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>133.8982808624606</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>133.8982808624606</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028584</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765189</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V13" t="n">
-        <v>531.397718270632</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W13" t="n">
-        <v>318.0096706038159</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>133.8982808624606</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5358,25 +5358,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171745</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M15" t="n">
-        <v>1479.482307609636</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N15" t="n">
-        <v>1479.482307609636</v>
+        <v>1760.836254362828</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>542.4381409926459</v>
+        <v>164.7973538578531</v>
       </c>
       <c r="C16" t="n">
-        <v>542.4381409926459</v>
+        <v>164.7973538578531</v>
       </c>
       <c r="D16" t="n">
-        <v>542.4381409926459</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1120.983949816048</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>831.8553110296066</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V16" t="n">
-        <v>831.8553110296066</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="W16" t="n">
-        <v>542.4381409926459</v>
+        <v>385.5899330013832</v>
       </c>
       <c r="X16" t="n">
-        <v>542.4381409926459</v>
+        <v>385.5899330013832</v>
       </c>
       <c r="Y16" t="n">
-        <v>542.4381409926459</v>
+        <v>164.7973538578531</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5595,19 +5595,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>495.7418540215911</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>1109.63892377848</v>
       </c>
       <c r="M18" t="n">
-        <v>2056.693778606511</v>
+        <v>1429.974243308181</v>
       </c>
       <c r="N18" t="n">
-        <v>2401.214434244129</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O18" t="n">
-        <v>2401.214434244129</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P18" t="n">
         <v>2543.548934765509</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>646.9375622247742</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>646.9375622247742</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>646.9375622247742</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>562.700369090432</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5680,13 +5680,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909233</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227915</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V19" t="n">
-        <v>874.9271131227915</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W19" t="n">
-        <v>874.9271131227915</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X19" t="n">
-        <v>646.9375622247742</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>646.9375622247742</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,19 +5762,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>222.5746515181233</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>452.5377573864724</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5377573864724</v>
+        <v>904.39166832551</v>
       </c>
       <c r="N21" t="n">
-        <v>1256.949335650623</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O21" t="n">
-        <v>1926.413096953283</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P21" t="n">
-        <v>2446.71371868903</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>563.1598612984388</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C22" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1458.668541506516</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1258.748531422069</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1258.748531422069</v>
       </c>
       <c r="U22" t="n">
-        <v>1080.566582233417</v>
+        <v>969.619892635627</v>
       </c>
       <c r="V22" t="n">
-        <v>1080.566582233417</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="W22" t="n">
-        <v>791.1494121964562</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X22" t="n">
-        <v>563.1598612984388</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.1598612984388</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>155.0560774135236</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L24" t="n">
-        <v>768.9531471704122</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.288466700114</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.809122337732</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.272883640391</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>710.3120936331045</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6172,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1375.053772676361</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1151.268357465867</v>
       </c>
       <c r="U25" t="n">
-        <v>964.1357418247858</v>
+        <v>1151.268357465867</v>
       </c>
       <c r="V25" t="n">
-        <v>938.3016445311218</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="W25" t="n">
-        <v>938.3016445311218</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X25" t="n">
-        <v>710.3120936331045</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y25" t="n">
-        <v>710.3120936331045</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6303,16 +6303,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>229.0376539332501</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M27" t="n">
-        <v>549.3729734629519</v>
+        <v>1009.263896089485</v>
       </c>
       <c r="N27" t="n">
         <v>1353.784551727103</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>564.1830073829216</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2468244550147</v>
+        <v>247.3337308726215</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6409,25 +6409,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1302.38230746143</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1302.38230746143</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>1302.38230746143</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="V28" t="n">
-        <v>1302.38230746143</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="W28" t="n">
-        <v>1012.965137424469</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="X28" t="n">
-        <v>784.9755865264517</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y28" t="n">
-        <v>564.1830073829216</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,40 +6446,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6546,19 +6546,19 @@
         <v>222.5746515181232</v>
       </c>
       <c r="L30" t="n">
-        <v>222.5746515181232</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M30" t="n">
-        <v>990.9427979105847</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="N30" t="n">
-        <v>1795.354376174735</v>
+        <v>1640.883299539163</v>
       </c>
       <c r="O30" t="n">
-        <v>2464.818137477394</v>
+        <v>2310.347060841822</v>
       </c>
       <c r="P30" t="n">
-        <v>2612.943493278838</v>
+        <v>2492.990538455173</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>639.0058129141007</v>
+        <v>439.5324299542183</v>
       </c>
       <c r="C31" t="n">
-        <v>546.570419558449</v>
+        <v>439.5324299542183</v>
       </c>
       <c r="D31" t="n">
-        <v>452.2146454274841</v>
+        <v>345.1766558232533</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264618</v>
+        <v>253.0244275222309</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264618</v>
+        <v>253.0244275222309</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>140.6099711234221</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>140.6099711234221</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1936.126063056075</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1768.101513126951</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1534.733739621881</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1335.810116697365</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1102.153811941775</v>
+        <v>902.6804289818931</v>
       </c>
       <c r="X31" t="n">
-        <v>929.9251263251288</v>
+        <v>730.4517433652464</v>
       </c>
       <c r="Y31" t="n">
-        <v>764.8934124629694</v>
+        <v>565.4200295030871</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6780,22 +6780,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>618.8589595388348</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M33" t="n">
-        <v>1387.227105931296</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N33" t="n">
-        <v>2191.638684195447</v>
+        <v>1569.24764349283</v>
       </c>
       <c r="O33" t="n">
-        <v>2440.392098279409</v>
+        <v>1818.001057576792</v>
       </c>
       <c r="P33" t="n">
-        <v>2612.943493278838</v>
+        <v>2338.301679312539</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
@@ -6935,52 +6935,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7020,19 +7020,19 @@
         <v>222.5746515181233</v>
       </c>
       <c r="L36" t="n">
-        <v>452.5377573864724</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5377573864724</v>
+        <v>990.9427979105849</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924718</v>
+        <v>1795.354376174736</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2044.107790258698</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7169,49 +7169,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>233.2506118890487</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L39" t="n">
-        <v>463.2137177573978</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M39" t="n">
-        <v>783.5490372870996</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525396</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254952</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7354,28 +7354,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7388,22 +7388,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
@@ -7412,16 +7412,16 @@
         <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643324</v>
@@ -7442,13 +7442,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7497,16 +7497,16 @@
         <v>738.0704661731477</v>
       </c>
       <c r="M42" t="n">
-        <v>1204.259384505797</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N42" t="n">
-        <v>1548.780040143415</v>
+        <v>2310.85019082976</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2310.85019082976</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254956</v>
@@ -7591,28 +7591,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7625,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>263.5382936126482</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L45" t="n">
-        <v>877.4353633695368</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M45" t="n">
-        <v>1197.770682899239</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N45" t="n">
-        <v>2002.182261163389</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O45" t="n">
-        <v>2250.935675247351</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103132</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7813,43 +7813,43 @@
         <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,22 +8775,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>351.8649359646275</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>298.8507496611595</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>388.3090270300187</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9255,10 +9255,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>277.746630163199</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>196.2646571089425</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>322.1249584027083</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,10 +9735,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,10 +9957,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>145.0826650476791</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>248.0655771179522</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10194,10 +10194,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>283.59597893094</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>308.2687457975921</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,10 +10668,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>348.7908446615367</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,10 +11394,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>110.1195851384162</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>75.26883114644312</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23656,19 +23656,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>81.71101324462082</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>45.31537350755707</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,16 +23896,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>63.0391414435704</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>78.8278113335962</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>70.11910064292084</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.5830744195187</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>185.2612894846704</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>226.5618870031007</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24649,22 +24649,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>113.3165389218887</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>207.2422534667965</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>20.53252504797539</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437407</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>12.25703796921011</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523564</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-8.726354250411307e-14</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>348942.7521923205</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923206</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="E2" t="n">
-        <v>332374.7007770524</v>
+        <v>332374.7007770522</v>
       </c>
       <c r="F2" t="n">
         <v>332374.7007770523</v>
       </c>
       <c r="G2" t="n">
-        <v>332374.7007770523</v>
+        <v>332374.7007770522</v>
       </c>
       <c r="H2" t="n">
         <v>332374.7007770523</v>
       </c>
       <c r="I2" t="n">
-        <v>332374.7007770523</v>
+        <v>332374.7007770521</v>
       </c>
       <c r="J2" t="n">
-        <v>332374.7007770523</v>
+        <v>332374.7007770524</v>
       </c>
       <c r="K2" t="n">
-        <v>345798.8167434797</v>
+        <v>345798.8167434798</v>
       </c>
       <c r="L2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="M2" t="n">
         <v>348942.7521923202</v>
       </c>
       <c r="N2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="O2" t="n">
         <v>348942.7521923203</v>
       </c>
       <c r="P2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923202</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284573</v>
+        <v>44162.60530284563</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086679</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028458</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26418,31 +26418,31 @@
         <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="D4" t="n">
         <v>139059.139180619</v>
-      </c>
-      <c r="D4" t="n">
-        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758825</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="G4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758785</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="H4" t="n">
-        <v>787.7936905758697</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905759224</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="K4" t="n">
-        <v>18952.41620477245</v>
+        <v>18952.41620477239</v>
       </c>
       <c r="L4" t="n">
         <v>23206.58093189634</v>
@@ -26451,13 +26451,13 @@
         <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189633</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189631</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26503,7 +26503,7 @@
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-462943.3442662525</v>
+        <v>-462943.3442662526</v>
       </c>
       <c r="C6" t="n">
-        <v>127024.534948292</v>
+        <v>127024.5349482921</v>
       </c>
       <c r="D6" t="n">
         <v>127024.534948292</v>
       </c>
       <c r="E6" t="n">
-        <v>-285560.4553391362</v>
+        <v>-285657.9144651085</v>
       </c>
       <c r="F6" t="n">
-        <v>239599.5811377598</v>
+        <v>239502.1220117876</v>
       </c>
       <c r="G6" t="n">
-        <v>239599.5811377598</v>
+        <v>239502.1220117875</v>
       </c>
       <c r="H6" t="n">
-        <v>239599.5811377598</v>
+        <v>239502.1220117876</v>
       </c>
       <c r="I6" t="n">
-        <v>239599.5811377598</v>
+        <v>239502.1220117875</v>
       </c>
       <c r="J6" t="n">
-        <v>63176.36194516673</v>
+        <v>63078.90281919474</v>
       </c>
       <c r="K6" t="n">
-        <v>186055.5867056388</v>
+        <v>186037.0929677045</v>
       </c>
       <c r="L6" t="n">
-        <v>217678.1586395318</v>
+        <v>217678.1586395317</v>
       </c>
       <c r="M6" t="n">
-        <v>93220.05020656128</v>
+        <v>93220.05020656131</v>
       </c>
       <c r="N6" t="n">
-        <v>228021.0654403985</v>
+        <v>228021.0654403986</v>
       </c>
       <c r="O6" t="n">
         <v>228021.0654403986</v>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26762,13 +26762,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108349</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855705</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>136.3860580474861</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>72.0116593191743</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>85.19271039829678</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>168.9606969831148</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>365.7724854141741</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>33.17202783755545</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>123.134006632638</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>36.41253843750066</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>98.04880368561619</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>278.1898308127593</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>264.3044543105168</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>23.9459416144033</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-2.787385542581102e-14</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>111.734380307287</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993485</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>139.432625713487</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,16 +31847,16 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,10 +32078,10 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724846</v>
@@ -32090,16 +32090,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>80.73509558694843</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,16 +32312,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>107.9252528799045</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -32330,7 +32330,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,16 +32488,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647517</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,10 +32549,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -32561,25 +32561,25 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>219.0045586706927</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.8133495722013</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,13 +32786,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -32807,7 +32807,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -33023,10 +33023,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -33035,7 +33035,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33266,13 +33266,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33281,16 +33281,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>51.06908718215736</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,25 +33500,25 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>207.3204600535045</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,16 +33673,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33743,28 +33743,28 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>334.3548281824519</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>319.9976433267275</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,25 +33971,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>10.78379835447012</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34217,19 +34217,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>147.3268674777246</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>120.6563887229569</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34357,25 +34357,25 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>435.7437450400229</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>191.9134873893293</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>323.920986939094</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35495,22 +35495,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>662.2893130150937</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>167.5090375778262</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>256.9673149466853</v>
       </c>
       <c r="O15" t="n">
-        <v>332.0011704192335</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>234.5490509181241</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>143.7722227488687</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36139,10 +36139,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36209,19 +36209,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>567.005220930913</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>167.9088632220289</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>58.42321813458356</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>190.783246319375</v>
       </c>
       <c r="O24" t="n">
         <v>676.2260215178376</v>
@@ -36455,10 +36455,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>6.52828526780493</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>105.9315431959339</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
         <v>676.2260215178376</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>149.6215715166098</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>121.1646008319849</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>174.2943383832619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>277.415973703332</v>
       </c>
       <c r="R33" t="n">
         <v>10.73738595686864</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>682.3554904426721</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>504.4860045523344</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>137.4075963926897</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>206.6568107395183</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37865,19 +37865,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>470.8978973057062</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>305.1447499485639</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>10.73738595686865</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>759.3147748680045</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>376.4018486149362</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520623</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
         <v>341.4087679352443</v>
@@ -38193,7 +38193,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
